--- a/data/trans_dic/P19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5385288071690179</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7275606500843986</v>
+        <v>0.7275606500843985</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4444853416253046</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3638857609019276</v>
+        <v>0.3624221779761903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.401968074195646</v>
+        <v>0.3938771757104684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4762616164153619</v>
+        <v>0.4691282285643816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5723236351248446</v>
+        <v>0.5734211887269296</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4334732832167009</v>
+        <v>0.4331039611254276</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4043058634892098</v>
+        <v>0.404309145539604</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4877190304534954</v>
+        <v>0.4876390581022977</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6578672581366088</v>
+        <v>0.6635689967998017</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4109825678859384</v>
+        <v>0.4100152911504522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4173201701182078</v>
+        <v>0.4183459771192468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4984796553408978</v>
+        <v>0.4970871428862297</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6334099022140688</v>
+        <v>0.6380585577419233</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4582173741253984</v>
+        <v>0.4626682305364817</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5012492242900032</v>
+        <v>0.4969212717025105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5876763306047097</v>
+        <v>0.5842226672650079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7344663357310844</v>
+        <v>0.7425426081710378</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5286458646746899</v>
+        <v>0.5258088244270781</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5074889363215439</v>
+        <v>0.5060818240110934</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5874779908208337</v>
+        <v>0.5890524001326177</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7954256674377891</v>
+        <v>0.790019547845808</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.479480840996474</v>
+        <v>0.4827844762017912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4888298048497953</v>
+        <v>0.4920398506604284</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5691232856679949</v>
+        <v>0.568750207854556</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7411324969289563</v>
+        <v>0.7408267065189036</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4480976713324831</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6493711205198939</v>
+        <v>0.649371120519894</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3557956769967766</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2888141059151277</v>
+        <v>0.2894065036365859</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3047448367026226</v>
+        <v>0.3044646238383849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3566314614265395</v>
+        <v>0.361174663784078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5962598564253143</v>
+        <v>0.5999110116613794</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3482920963980998</v>
+        <v>0.3434397588588158</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3682825296579559</v>
+        <v>0.3677670689326331</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4052736486164124</v>
+        <v>0.4069769702320145</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6002746108783037</v>
+        <v>0.6031910811605773</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3268699198213513</v>
+        <v>0.3271072769736499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3479263608383716</v>
+        <v>0.3479731154771831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.39401266538511</v>
+        <v>0.3911306451245753</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6159951354147889</v>
+        <v>0.61299794809123</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3731114545023765</v>
+        <v>0.3668897740413119</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3834265421715966</v>
+        <v>0.3859712875019919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4497769110987413</v>
+        <v>0.4517430083516916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7113913109911774</v>
+        <v>0.7160703508365002</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4311648194403367</v>
+        <v>0.4285959671743103</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.451916243634411</v>
+        <v>0.4532268910967074</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4921010578559536</v>
+        <v>0.4906014068518947</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6921003455327724</v>
+        <v>0.6972660332097196</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3842944905830716</v>
+        <v>0.3860817833838714</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4054335637711027</v>
+        <v>0.4049076360405392</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4545234219267281</v>
+        <v>0.45501613770472</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6909973465773381</v>
+        <v>0.6913926580800154</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4074213318710759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5991458304416447</v>
+        <v>0.5991458304416445</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3143936001201378</v>
@@ -969,7 +969,7 @@
         <v>0.438774514815543</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6154716677094483</v>
+        <v>0.6154716677094482</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2589604422998548</v>
+        <v>0.2585921456798398</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2622965069337753</v>
+        <v>0.2671688637017395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3705039649964387</v>
+        <v>0.3638901738288786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5594317589266348</v>
+        <v>0.5545020571718193</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2794159741423132</v>
+        <v>0.2756228032594462</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3392855456560681</v>
+        <v>0.3409096420010907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4259108143716474</v>
+        <v>0.4252890225179236</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5955786189894543</v>
+        <v>0.5937176744888953</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2775455064517732</v>
+        <v>0.2815791643000787</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3177597164533599</v>
+        <v>0.3157441212361755</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4093711290400747</v>
+        <v>0.4077944842223038</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5868897877857252</v>
+        <v>0.5881713138911561</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3431436147353813</v>
+        <v>0.3455237867281785</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3404644946262187</v>
+        <v>0.3456821774846706</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4510335248210372</v>
+        <v>0.4478279239971178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6428418660206097</v>
+        <v>0.6375079121713171</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3542220555299711</v>
+        <v>0.3538144298207815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4176740359288964</v>
+        <v>0.4183502472288353</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.509914851084748</v>
+        <v>0.5077420163234891</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6624684635614096</v>
+        <v>0.6654047671337754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3337349558003156</v>
+        <v>0.3373116988998056</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3726159899043559</v>
+        <v>0.3723889383882311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4676565609057463</v>
+        <v>0.4669907188541224</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6427976406956571</v>
+        <v>0.6420356508770221</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4290972203007126</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6072880135198424</v>
+        <v>0.6072880135198425</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2170992237635397</v>
+        <v>0.21911087424228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2221450065846391</v>
+        <v>0.2280180114716898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3757357019442525</v>
+        <v>0.3778829116512872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5539492832020043</v>
+        <v>0.5553987176133421</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2436156511801016</v>
+        <v>0.2487193267496387</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2953243084369253</v>
+        <v>0.2969474235299057</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.391467841661835</v>
+        <v>0.3947457682009051</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5891225152458385</v>
+        <v>0.5934991911824063</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2429104960255711</v>
+        <v>0.2439828142128767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2719835549006251</v>
+        <v>0.2720604332695782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3985593993278746</v>
+        <v>0.3951142577575756</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5834259076200544</v>
+        <v>0.5824934638425174</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.305572927115394</v>
+        <v>0.3048648030194132</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3044752062966355</v>
+        <v>0.3049133816697745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4682049879848113</v>
+        <v>0.4652193767748875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6273655167145696</v>
+        <v>0.63144338673394</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3276331631116598</v>
+        <v>0.3364024820777116</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3835587382627061</v>
+        <v>0.3869496819644396</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.479742430976101</v>
+        <v>0.4816797044466152</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6480029634130311</v>
+        <v>0.6494653393775031</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3092632817930592</v>
+        <v>0.304518045937708</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3315911975044706</v>
+        <v>0.3348665884613247</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4609549516658332</v>
+        <v>0.4595643686338229</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.631222766847589</v>
+        <v>0.6331072568422645</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3585921802318087</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5158952405844647</v>
+        <v>0.5158952405844646</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2137791834464029</v>
@@ -1241,7 +1241,7 @@
         <v>0.3751778297870659</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5390416453344933</v>
+        <v>0.5390416453344934</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2152402182755265</v>
+        <v>0.2135443195650433</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2040181746325937</v>
+        <v>0.2049020775900366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3071052420356954</v>
+        <v>0.3096324720480541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4765138229397829</v>
+        <v>0.4776938004131975</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1734902000245894</v>
+        <v>0.1721106617969773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2305543666936946</v>
+        <v>0.2338741568495424</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3407686387070944</v>
+        <v>0.338555888650893</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5322159210993672</v>
+        <v>0.5319835433977317</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2031853908639381</v>
+        <v>0.2003565312760282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2319257150298205</v>
+        <v>0.2338164456997598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3347458911704685</v>
+        <v>0.343228755204008</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5117957146238031</v>
+        <v>0.5152105454344043</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.32338192764658</v>
+        <v>0.3239226793278179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3017183713168975</v>
+        <v>0.3032604649085068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4145175716560193</v>
+        <v>0.4110553757944672</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5524632942415036</v>
+        <v>0.5549201921051766</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2621700116464734</v>
+        <v>0.264497694379058</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3279634828963992</v>
+        <v>0.3267991538471866</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4426636585207276</v>
+        <v>0.4400913520792373</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5942279094851644</v>
+        <v>0.5955938584801939</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2715834544662757</v>
+        <v>0.270831900064745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.298251090970352</v>
+        <v>0.3024727634767744</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4119580513901728</v>
+        <v>0.4123238890412527</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5626837098583009</v>
+        <v>0.5630839990182542</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3447986231911256</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5274360925258649</v>
+        <v>0.527436092525865</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.209397610476922</v>
@@ -1377,7 +1377,7 @@
         <v>0.3507605852535167</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5155587532102865</v>
+        <v>0.5155587532102864</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1621877480697805</v>
+        <v>0.1628574279223325</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1241456377546554</v>
+        <v>0.1236325849169955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2930257903975303</v>
+        <v>0.2928858776041945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4653003082240868</v>
+        <v>0.4622311257706738</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1593695982523539</v>
+        <v>0.1534200263507964</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1842723437105974</v>
+        <v>0.1860088772678784</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2873402760776456</v>
+        <v>0.2844452633251569</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4919221667783249</v>
+        <v>0.4900743808998134</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1760217585492019</v>
+        <v>0.1754920415358006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1679753953732866</v>
+        <v>0.1667864996240022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.305995887262908</v>
+        <v>0.3119838531030659</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4881819585028647</v>
+        <v>0.4878135729978622</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2753916877850225</v>
+        <v>0.2776082169505015</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2257340042150299</v>
+        <v>0.2243015871318006</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4228364226914501</v>
+        <v>0.4227807080079305</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5508495685182132</v>
+        <v>0.547237657676014</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2563668126889268</v>
+        <v>0.2488544820920755</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2821862173937071</v>
+        <v>0.2823103750209927</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4013633662781272</v>
+        <v>0.4021760817707301</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5631131295040922</v>
+        <v>0.5595004221329911</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2474052523660738</v>
+        <v>0.2480483157947214</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2390838694621747</v>
+        <v>0.2360030051955304</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3938192587581351</v>
+        <v>0.3956124883311525</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5438968075735646</v>
+        <v>0.5417904624080059</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3040728553656181</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.420571151693251</v>
+        <v>0.4205711516932509</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1626091090654755</v>
@@ -1501,7 +1501,7 @@
         <v>0.3239954405600535</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4219381409981477</v>
+        <v>0.4219381409981478</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1685744796201752</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1202854652899127</v>
+        <v>0.1168939940771362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09025699437299477</v>
+        <v>0.08882387585348539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2433304276912278</v>
+        <v>0.242688343806165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3737272134036425</v>
+        <v>0.375906242060633</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1154942555340255</v>
+        <v>0.1110814508935914</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.151193328713175</v>
+        <v>0.1548990529913636</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2560969768702087</v>
+        <v>0.2577442760002638</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3858580672851193</v>
+        <v>0.384283583528637</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1316445664060859</v>
+        <v>0.1318772567378422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1394419868358982</v>
+        <v>0.1414692313198201</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2665731041194407</v>
+        <v>0.2664681117031542</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3928662577914741</v>
+        <v>0.3919032829594706</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2578816408045577</v>
+        <v>0.2553056554092127</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1984710341692007</v>
+        <v>0.197810852975577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3793873396909542</v>
+        <v>0.374670071567438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4695001438746441</v>
+        <v>0.468218610855652</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2290676331399003</v>
+        <v>0.2271729299479763</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2476237528717759</v>
+        <v>0.2515671282182279</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3948905544821546</v>
+        <v>0.3974352854427233</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4557945928972564</v>
+        <v>0.4563755339797019</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2204188981012606</v>
+        <v>0.2158103566796216</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2119292305255508</v>
+        <v>0.2092009561458817</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3694811405650887</v>
+        <v>0.3652681579634299</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4512841677169995</v>
+        <v>0.4485433249819177</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.4077582905099349</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3138913274493892</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>130781</v>
+        <v>130255</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>152417</v>
+        <v>149349</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>168044</v>
+        <v>165527</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>216827</v>
+        <v>217243</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>163095</v>
+        <v>162956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>149994</v>
+        <v>149995</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>171643</v>
+        <v>171615</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>225806</v>
+        <v>227763</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>302341</v>
+        <v>301629</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>313059</v>
+        <v>313829</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>351314</v>
+        <v>350332</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>457381</v>
+        <v>460738</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>164684</v>
+        <v>166283</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>190062</v>
+        <v>188421</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>207356</v>
+        <v>206137</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>278256</v>
+        <v>281315</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>198904</v>
+        <v>197837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>188274</v>
+        <v>187752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>206751</v>
+        <v>207305</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>273022</v>
+        <v>271166</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>352732</v>
+        <v>355162</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>366703</v>
+        <v>369112</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>401101</v>
+        <v>400838</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>535167</v>
+        <v>534947</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>166728</v>
+        <v>167070</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>182014</v>
+        <v>181847</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>175847</v>
+        <v>178087</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>265868</v>
+        <v>267496</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>190762</v>
+        <v>188105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>206183</v>
+        <v>205895</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>201308</v>
+        <v>202154</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>289698</v>
+        <v>291105</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>367726</v>
+        <v>367993</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>402592</v>
+        <v>402646</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>389993</v>
+        <v>387140</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>571953</v>
+        <v>569170</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>215392</v>
+        <v>211800</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>229008</v>
+        <v>230528</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>221775</v>
+        <v>222745</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>317204</v>
+        <v>319291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>236152</v>
+        <v>234745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>253006</v>
+        <v>253740</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>244436</v>
+        <v>243692</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>334014</v>
+        <v>336507</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>432329</v>
+        <v>434339</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>469134</v>
+        <v>468526</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>449886</v>
+        <v>450374</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>641592</v>
+        <v>641959</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>130240</v>
+        <v>130055</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>153877</v>
+        <v>156735</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>206689</v>
+        <v>203000</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>336288</v>
+        <v>333324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>168646</v>
+        <v>166356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>223405</v>
+        <v>224474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>244081</v>
+        <v>243725</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>361684</v>
+        <v>360554</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>307103</v>
+        <v>311567</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>395645</v>
+        <v>393135</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>462974</v>
+        <v>461191</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>709201</v>
+        <v>710749</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>172578</v>
+        <v>173775</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>199734</v>
+        <v>202795</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>251614</v>
+        <v>249825</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>386428</v>
+        <v>383221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>213796</v>
+        <v>213550</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>275020</v>
+        <v>275465</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>292222</v>
+        <v>290977</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>402305</v>
+        <v>404088</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>369277</v>
+        <v>373234</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>463947</v>
+        <v>463664</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>528892</v>
+        <v>528138</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>776760</v>
+        <v>775839</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87870</v>
+        <v>88685</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>120589</v>
+        <v>123777</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>192516</v>
+        <v>193617</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>375743</v>
+        <v>376726</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106992</v>
+        <v>109234</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>166055</v>
+        <v>166968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>213305</v>
+        <v>215091</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>425203</v>
+        <v>428362</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>205000</v>
+        <v>205905</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>300574</v>
+        <v>300659</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>421379</v>
+        <v>417737</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>816829</v>
+        <v>815523</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>123680</v>
+        <v>123393</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>165281</v>
+        <v>165519</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>239895</v>
+        <v>238365</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>425541</v>
+        <v>428307</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>143892</v>
+        <v>147743</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>215667</v>
+        <v>217574</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>261404</v>
+        <v>262460</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>467701</v>
+        <v>468756</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>260997</v>
+        <v>256993</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>366448</v>
+        <v>370067</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>487347</v>
+        <v>485877</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>883747</v>
+        <v>886386</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58620</v>
+        <v>58159</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>73714</v>
+        <v>74033</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>113937</v>
+        <v>114874</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>282742</v>
+        <v>283442</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55358</v>
+        <v>54917</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>90081</v>
+        <v>91378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>134901</v>
+        <v>134025</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>317120</v>
+        <v>316982</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120170</v>
+        <v>118497</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>174414</v>
+        <v>175836</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>256708</v>
+        <v>263214</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>608630</v>
+        <v>612690</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88073</v>
+        <v>88220</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>109014</v>
+        <v>109571</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>153787</v>
+        <v>152502</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>327807</v>
+        <v>329265</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>83654</v>
+        <v>84396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>128140</v>
+        <v>127685</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>175239</v>
+        <v>174220</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>354070</v>
+        <v>354884</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>160623</v>
+        <v>160178</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>224292</v>
+        <v>227467</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>315920</v>
+        <v>316201</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>669146</v>
+        <v>669622</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34508</v>
+        <v>34650</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>32587</v>
+        <v>32452</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>67433</v>
+        <v>67400</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>185070</v>
+        <v>183850</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>39206</v>
+        <v>37742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>55390</v>
+        <v>55912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>79578</v>
+        <v>78777</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>210998</v>
+        <v>210205</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>80754</v>
+        <v>80511</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>94583</v>
+        <v>93914</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>155163</v>
+        <v>158199</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>403565</v>
+        <v>403260</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58594</v>
+        <v>59065</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>59253</v>
+        <v>58877</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>97305</v>
+        <v>97292</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>219097</v>
+        <v>217660</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>63068</v>
+        <v>61220</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84822</v>
+        <v>84859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>111157</v>
+        <v>111382</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>241533</v>
+        <v>239984</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>113503</v>
+        <v>113798</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>134623</v>
+        <v>132888</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>199696</v>
+        <v>200605</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>449623</v>
+        <v>447881</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15248</v>
+        <v>14818</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16691</v>
+        <v>16426</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35783</v>
+        <v>35689</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>113374</v>
+        <v>114035</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24047</v>
+        <v>23128</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>45723</v>
+        <v>46843</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>58359</v>
+        <v>58735</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>172010</v>
+        <v>171308</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>44097</v>
+        <v>44175</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>67956</v>
+        <v>68943</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>99948</v>
+        <v>99908</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>294315</v>
+        <v>293593</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32690</v>
+        <v>32364</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36702</v>
+        <v>36580</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>55792</v>
+        <v>55098</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>142428</v>
+        <v>142039</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47694</v>
+        <v>47299</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>74885</v>
+        <v>76077</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>89987</v>
+        <v>90567</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>203187</v>
+        <v>203446</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>73834</v>
+        <v>72290</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>103281</v>
+        <v>101952</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>138532</v>
+        <v>136952</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>338078</v>
+        <v>336025</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
     </row>
     <row r="36">
